--- a/db/student.xlsx
+++ b/db/student.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="1032">
   <si>
     <t>Last Name</t>
   </si>
@@ -2606,12 +2606,6 @@
     <t>ariveral</t>
   </si>
   <si>
-    <t>two different ones</t>
-  </si>
-  <si>
-    <t>nseifer(1?)</t>
-  </si>
-  <si>
     <t>vsellner</t>
   </si>
   <si>
@@ -3048,6 +3042,84 @@
   </si>
   <si>
     <t>swirth1</t>
+  </si>
+  <si>
+    <t>aglaser</t>
+  </si>
+  <si>
+    <t>jharrison</t>
+  </si>
+  <si>
+    <t>kmckenna</t>
+  </si>
+  <si>
+    <t>cbesetzny</t>
+  </si>
+  <si>
+    <t>rmckalip</t>
+  </si>
+  <si>
+    <t>koh</t>
+  </si>
+  <si>
+    <t>ndeletorre</t>
+  </si>
+  <si>
+    <t>oberardi</t>
+  </si>
+  <si>
+    <t>ahill</t>
+  </si>
+  <si>
+    <t>mdesantis</t>
+  </si>
+  <si>
+    <t>jdong</t>
+  </si>
+  <si>
+    <t>nseifer1</t>
+  </si>
+  <si>
+    <t>cvalentine</t>
+  </si>
+  <si>
+    <t>jkulikowski</t>
+  </si>
+  <si>
+    <t>mryan</t>
+  </si>
+  <si>
+    <t>ccecil</t>
+  </si>
+  <si>
+    <t>jcollins</t>
+  </si>
+  <si>
+    <t>mfuchs</t>
+  </si>
+  <si>
+    <t>skelly</t>
+  </si>
+  <si>
+    <t>btalbot</t>
+  </si>
+  <si>
+    <t>esmith</t>
+  </si>
+  <si>
+    <t>jryan</t>
+  </si>
+  <si>
+    <t>jmiller</t>
+  </si>
+  <si>
+    <t>blee</t>
+  </si>
+  <si>
+    <t>jmaloney</t>
+  </si>
+  <si>
+    <t>mmcguinness</t>
   </si>
 </sst>
 </file>
@@ -3069,18 +3141,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3110,12 +3176,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -3432,18 +3497,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G405"/>
+  <dimension ref="A1:F405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="P360" sqref="P360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3516,9 +3581,15 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -3550,9 +3621,15 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -3584,9 +3661,15 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -3838,9 +3921,15 @@
       <c r="C21" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -4075,7 +4164,9 @@
       <c r="D33" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>2020</v>
+      </c>
       <c r="F33" t="s">
         <v>51</v>
       </c>
@@ -4130,9 +4221,15 @@
       <c r="C36" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -4784,9 +4881,15 @@
       <c r="C69" t="s">
         <v>201</v>
       </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -5978,9 +6081,15 @@
       <c r="C129" t="s">
         <v>390</v>
       </c>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="D129" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E129" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="130" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
@@ -6355,8 +6464,8 @@
       <c r="D148" t="s">
         <v>405</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>492</v>
+      <c r="E148" s="2">
+        <v>2017</v>
       </c>
       <c r="F148" t="s">
         <v>51</v>
@@ -6492,9 +6601,15 @@
       <c r="C155" t="s">
         <v>491</v>
       </c>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
+      <c r="D155" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E155" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="156" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
@@ -6636,7 +6751,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>459</v>
       </c>
@@ -6786,9 +6901,15 @@
       <c r="C170" t="s">
         <v>491</v>
       </c>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
+      <c r="D170" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E170" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="171" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
@@ -7210,7 +7331,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>486</v>
       </c>
@@ -7660,9 +7781,15 @@
       <c r="C214" t="s">
         <v>527</v>
       </c>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
+      <c r="D214" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E214" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
@@ -7714,9 +7841,15 @@
       <c r="C217" t="s">
         <v>527</v>
       </c>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
+      <c r="D217" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E217" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="218" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
@@ -7898,7 +8031,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>560</v>
       </c>
@@ -7931,8 +8064,12 @@
       <c r="D228" t="s">
         <v>847</v>
       </c>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
+      <c r="E228" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="229" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
@@ -8174,7 +8311,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>546</v>
       </c>
@@ -8194,7 +8331,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>545</v>
       </c>
@@ -8214,7 +8351,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>544</v>
       </c>
@@ -8234,7 +8371,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>543</v>
       </c>
@@ -8245,7 +8382,7 @@
         <v>527</v>
       </c>
       <c r="D244" t="s">
-        <v>861</v>
+        <v>1017</v>
       </c>
       <c r="E244">
         <v>2020</v>
@@ -8253,11 +8390,8 @@
       <c r="F244" t="s">
         <v>51</v>
       </c>
-      <c r="G244" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>542</v>
       </c>
@@ -8268,7 +8402,7 @@
         <v>527</v>
       </c>
       <c r="D245" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E245">
         <v>2018</v>
@@ -8277,7 +8411,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>541</v>
       </c>
@@ -8288,7 +8422,7 @@
         <v>527</v>
       </c>
       <c r="D246" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E246">
         <v>2019</v>
@@ -8297,7 +8431,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>540</v>
       </c>
@@ -8308,7 +8442,7 @@
         <v>527</v>
       </c>
       <c r="D247" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E247">
         <v>2020</v>
@@ -8317,7 +8451,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>539</v>
       </c>
@@ -8328,7 +8462,7 @@
         <v>527</v>
       </c>
       <c r="D248" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E248">
         <v>2017</v>
@@ -8337,7 +8471,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>538</v>
       </c>
@@ -8348,7 +8482,7 @@
         <v>527</v>
       </c>
       <c r="D249" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E249">
         <v>2019</v>
@@ -8357,7 +8491,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>537</v>
       </c>
@@ -8368,7 +8502,7 @@
         <v>527</v>
       </c>
       <c r="D250" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E250">
         <v>2019</v>
@@ -8377,7 +8511,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>536</v>
       </c>
@@ -8388,7 +8522,7 @@
         <v>527</v>
       </c>
       <c r="D251" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E251">
         <v>2020</v>
@@ -8397,7 +8531,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>535</v>
       </c>
@@ -8408,7 +8542,7 @@
         <v>527</v>
       </c>
       <c r="D252" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E252">
         <v>2017</v>
@@ -8417,7 +8551,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>534</v>
       </c>
@@ -8427,11 +8561,17 @@
       <c r="C253" t="s">
         <v>527</v>
       </c>
-      <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
-    </row>
-    <row r="254" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D253" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E253" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>533</v>
       </c>
@@ -8442,7 +8582,7 @@
         <v>527</v>
       </c>
       <c r="D254" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E254">
         <v>2017</v>
@@ -8451,7 +8591,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>532</v>
       </c>
@@ -8462,7 +8602,7 @@
         <v>527</v>
       </c>
       <c r="D255" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E255">
         <v>2019</v>
@@ -8471,7 +8611,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>531</v>
       </c>
@@ -8482,7 +8622,7 @@
         <v>527</v>
       </c>
       <c r="D256" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E256">
         <v>2017</v>
@@ -8502,7 +8642,7 @@
         <v>527</v>
       </c>
       <c r="D257" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E257">
         <v>2019</v>
@@ -8522,7 +8662,7 @@
         <v>527</v>
       </c>
       <c r="D258" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E258">
         <v>2017</v>
@@ -8542,7 +8682,7 @@
         <v>527</v>
       </c>
       <c r="D259" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E259">
         <v>2020</v>
@@ -8562,7 +8702,7 @@
         <v>654</v>
       </c>
       <c r="D260" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E260">
         <v>2020</v>
@@ -8582,7 +8722,7 @@
         <v>654</v>
       </c>
       <c r="D261" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E261">
         <v>2018</v>
@@ -8602,7 +8742,7 @@
         <v>654</v>
       </c>
       <c r="D262" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E262">
         <v>2017</v>
@@ -8622,7 +8762,7 @@
         <v>654</v>
       </c>
       <c r="D263" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E263">
         <v>2019</v>
@@ -8642,7 +8782,7 @@
         <v>654</v>
       </c>
       <c r="D264" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E264">
         <v>2018</v>
@@ -8662,7 +8802,7 @@
         <v>654</v>
       </c>
       <c r="D265" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E265">
         <v>2018</v>
@@ -8682,13 +8822,13 @@
         <v>654</v>
       </c>
       <c r="D266" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E266">
         <v>2017</v>
       </c>
       <c r="F266" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8702,7 +8842,7 @@
         <v>654</v>
       </c>
       <c r="D267" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E267">
         <v>2018</v>
@@ -8722,7 +8862,7 @@
         <v>654</v>
       </c>
       <c r="D268" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E268">
         <v>2017</v>
@@ -8742,7 +8882,7 @@
         <v>654</v>
       </c>
       <c r="D269" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E269">
         <v>2020</v>
@@ -8762,7 +8902,7 @@
         <v>654</v>
       </c>
       <c r="D270" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E270">
         <v>2017</v>
@@ -8782,7 +8922,7 @@
         <v>654</v>
       </c>
       <c r="D271" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E271">
         <v>2019</v>
@@ -8791,7 +8931,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>625</v>
       </c>
@@ -8802,7 +8942,7 @@
         <v>654</v>
       </c>
       <c r="D272" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E272">
         <v>2020</v>
@@ -8822,7 +8962,7 @@
         <v>654</v>
       </c>
       <c r="D273" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E273">
         <v>2020</v>
@@ -8842,7 +8982,7 @@
         <v>654</v>
       </c>
       <c r="D274" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E274">
         <v>2019</v>
@@ -8862,7 +9002,7 @@
         <v>654</v>
       </c>
       <c r="D275" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E275">
         <v>2019</v>
@@ -8882,7 +9022,7 @@
         <v>654</v>
       </c>
       <c r="D276" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E276">
         <v>2017</v>
@@ -8902,7 +9042,7 @@
         <v>654</v>
       </c>
       <c r="D277" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E277">
         <v>2017</v>
@@ -8922,7 +9062,7 @@
         <v>654</v>
       </c>
       <c r="D278" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E278">
         <v>2020</v>
@@ -8942,7 +9082,7 @@
         <v>654</v>
       </c>
       <c r="D279" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E279">
         <v>2020</v>
@@ -8962,7 +9102,7 @@
         <v>654</v>
       </c>
       <c r="D280" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E280">
         <v>2019</v>
@@ -8982,13 +9122,13 @@
         <v>654</v>
       </c>
       <c r="D281" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E281">
         <v>2020</v>
       </c>
       <c r="F281" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9002,7 +9142,7 @@
         <v>654</v>
       </c>
       <c r="D282" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E282">
         <v>2017</v>
@@ -9022,7 +9162,7 @@
         <v>654</v>
       </c>
       <c r="D283" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E283">
         <v>2019</v>
@@ -9042,7 +9182,7 @@
         <v>654</v>
       </c>
       <c r="D284" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E284">
         <v>2020</v>
@@ -9062,7 +9202,7 @@
         <v>654</v>
       </c>
       <c r="D285" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E285">
         <v>2020</v>
@@ -9082,7 +9222,7 @@
         <v>654</v>
       </c>
       <c r="D286" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E286">
         <v>2018</v>
@@ -9101,9 +9241,15 @@
       <c r="C287" t="s">
         <v>654</v>
       </c>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-      <c r="F287" s="2"/>
+      <c r="D287" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E287" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="288" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
@@ -9116,7 +9262,7 @@
         <v>654</v>
       </c>
       <c r="D288" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E288">
         <v>2019</v>
@@ -9136,7 +9282,7 @@
         <v>654</v>
       </c>
       <c r="D289" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E289">
         <v>2017</v>
@@ -9156,7 +9302,7 @@
         <v>654</v>
       </c>
       <c r="D290" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E290">
         <v>2018</v>
@@ -9176,7 +9322,7 @@
         <v>654</v>
       </c>
       <c r="D291" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E291">
         <v>2020</v>
@@ -9196,7 +9342,7 @@
         <v>654</v>
       </c>
       <c r="D292" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E292">
         <v>2018</v>
@@ -9216,7 +9362,7 @@
         <v>654</v>
       </c>
       <c r="D293" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E293">
         <v>2020</v>
@@ -9236,7 +9382,7 @@
         <v>654</v>
       </c>
       <c r="D294" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E294">
         <v>2020</v>
@@ -9256,13 +9402,13 @@
         <v>654</v>
       </c>
       <c r="D295" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E295">
         <v>2020</v>
       </c>
       <c r="F295" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9276,7 +9422,7 @@
         <v>654</v>
       </c>
       <c r="D296" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E296">
         <v>2020</v>
@@ -9296,7 +9442,7 @@
         <v>654</v>
       </c>
       <c r="D297" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E297">
         <v>2018</v>
@@ -9305,7 +9451,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>622</v>
       </c>
@@ -9316,7 +9462,7 @@
         <v>654</v>
       </c>
       <c r="D298" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E298">
         <v>2019</v>
@@ -9336,7 +9482,7 @@
         <v>654</v>
       </c>
       <c r="D299" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E299">
         <v>2020</v>
@@ -9376,7 +9522,7 @@
         <v>654</v>
       </c>
       <c r="D301" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E301">
         <v>2019</v>
@@ -9395,9 +9541,15 @@
       <c r="C302" t="s">
         <v>654</v>
       </c>
-      <c r="D302" s="2"/>
-      <c r="E302" s="2"/>
-      <c r="F302" s="2"/>
+      <c r="D302" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E302" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="303" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
@@ -9410,7 +9562,7 @@
         <v>654</v>
       </c>
       <c r="D303" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E303">
         <v>2018</v>
@@ -9430,7 +9582,7 @@
         <v>654</v>
       </c>
       <c r="D304" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E304">
         <v>2020</v>
@@ -9439,7 +9591,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>617</v>
       </c>
@@ -9450,7 +9602,7 @@
         <v>654</v>
       </c>
       <c r="D305" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E305">
         <v>2017</v>
@@ -9459,7 +9611,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>616</v>
       </c>
@@ -9470,7 +9622,7 @@
         <v>654</v>
       </c>
       <c r="D306" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E306">
         <v>2020</v>
@@ -9479,7 +9631,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>615</v>
       </c>
@@ -9490,7 +9642,7 @@
         <v>654</v>
       </c>
       <c r="D307" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E307">
         <v>2017</v>
@@ -9499,7 +9651,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>614</v>
       </c>
@@ -9510,7 +9662,7 @@
         <v>654</v>
       </c>
       <c r="D308" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E308">
         <v>2017</v>
@@ -9519,7 +9671,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>613</v>
       </c>
@@ -9530,7 +9682,7 @@
         <v>654</v>
       </c>
       <c r="D309" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E309">
         <v>2017</v>
@@ -9539,7 +9691,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>612</v>
       </c>
@@ -9550,7 +9702,7 @@
         <v>654</v>
       </c>
       <c r="D310" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E310">
         <v>2020</v>
@@ -9559,7 +9711,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>611</v>
       </c>
@@ -9570,7 +9722,7 @@
         <v>654</v>
       </c>
       <c r="D311" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E311">
         <v>2018</v>
@@ -9579,7 +9731,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>657</v>
       </c>
@@ -9590,7 +9742,7 @@
         <v>687</v>
       </c>
       <c r="D312" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E312">
         <v>2018</v>
@@ -9599,7 +9751,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>750</v>
       </c>
@@ -9610,7 +9762,7 @@
         <v>687</v>
       </c>
       <c r="D313" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E313">
         <v>2018</v>
@@ -9619,7 +9771,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>751</v>
       </c>
@@ -9630,7 +9782,7 @@
         <v>687</v>
       </c>
       <c r="D314" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E314">
         <v>2017</v>
@@ -9639,7 +9791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>644</v>
       </c>
@@ -9650,7 +9802,7 @@
         <v>687</v>
       </c>
       <c r="D315" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E315">
         <v>2019</v>
@@ -9659,7 +9811,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>752</v>
       </c>
@@ -9670,7 +9822,7 @@
         <v>687</v>
       </c>
       <c r="D316" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E316">
         <v>2017</v>
@@ -9679,7 +9831,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>753</v>
       </c>
@@ -9689,11 +9841,17 @@
       <c r="C317" t="s">
         <v>687</v>
       </c>
-      <c r="D317" s="2"/>
-      <c r="E317" s="2"/>
-      <c r="F317" s="2"/>
-    </row>
-    <row r="318" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D317" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E317" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>81</v>
       </c>
@@ -9703,17 +9861,17 @@
       <c r="C318" t="s">
         <v>687</v>
       </c>
-      <c r="D318" t="s">
-        <v>931</v>
-      </c>
-      <c r="E318">
+      <c r="D318" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="E318" s="2">
         <v>2019</v>
       </c>
-      <c r="F318" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F318" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>81</v>
       </c>
@@ -9723,14 +9881,17 @@
       <c r="C319" t="s">
         <v>687</v>
       </c>
-      <c r="D319" s="2"/>
-      <c r="E319" s="2"/>
-      <c r="F319" s="2"/>
-      <c r="G319">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D319" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E319" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>754</v>
       </c>
@@ -9741,7 +9902,7 @@
         <v>687</v>
       </c>
       <c r="D320" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E320">
         <v>2019</v>
@@ -9760,13 +9921,13 @@
       <c r="C321" t="s">
         <v>687</v>
       </c>
-      <c r="D321" s="3" t="s">
-        <v>933</v>
-      </c>
-      <c r="E321" s="3">
+      <c r="D321" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="E321" s="2">
         <v>2017</v>
       </c>
-      <c r="F321" s="3" t="s">
+      <c r="F321" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -9780,13 +9941,13 @@
       <c r="C322" t="s">
         <v>687</v>
       </c>
-      <c r="D322" s="3" t="s">
-        <v>934</v>
-      </c>
-      <c r="E322" s="3">
+      <c r="D322" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="E322" s="2">
         <v>2018</v>
       </c>
-      <c r="F322" s="4" t="s">
+      <c r="F322" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -9800,13 +9961,13 @@
       <c r="C323" t="s">
         <v>687</v>
       </c>
-      <c r="D323" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="E323" s="3">
+      <c r="D323" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="E323" s="2">
         <v>2019</v>
       </c>
-      <c r="F323" s="4" t="s">
+      <c r="F323" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -9820,13 +9981,13 @@
       <c r="C324" t="s">
         <v>687</v>
       </c>
-      <c r="D324" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="E324" s="3">
+      <c r="D324" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="E324" s="2">
         <v>2018</v>
       </c>
-      <c r="F324" s="4" t="s">
+      <c r="F324" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -9840,13 +10001,13 @@
       <c r="C325" t="s">
         <v>687</v>
       </c>
-      <c r="D325" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="E325" s="3">
+      <c r="D325" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="E325" s="2">
         <v>2020</v>
       </c>
-      <c r="F325" s="4" t="s">
+      <c r="F325" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -9860,13 +10021,13 @@
       <c r="C326" t="s">
         <v>687</v>
       </c>
-      <c r="D326" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="E326" s="3">
+      <c r="D326" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="E326" s="2">
         <v>2020</v>
       </c>
-      <c r="F326" s="4" t="s">
+      <c r="F326" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -9880,13 +10041,13 @@
       <c r="C327" t="s">
         <v>687</v>
       </c>
-      <c r="D327" s="3" t="s">
+      <c r="D327" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E327" s="3">
+      <c r="E327" s="2">
         <v>2020</v>
       </c>
-      <c r="F327" s="4" t="s">
+      <c r="F327" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -9900,13 +10061,13 @@
       <c r="C328" t="s">
         <v>687</v>
       </c>
-      <c r="D328" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="E328" s="3">
+      <c r="D328" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="E328" s="2">
         <v>2017</v>
       </c>
-      <c r="F328" s="4" t="s">
+      <c r="F328" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -9920,13 +10081,13 @@
       <c r="C329" t="s">
         <v>687</v>
       </c>
-      <c r="D329" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="E329" s="3">
+      <c r="D329" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="E329" s="2">
         <v>2020</v>
       </c>
-      <c r="F329" s="4" t="s">
+      <c r="F329" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -9940,13 +10101,13 @@
       <c r="C330" t="s">
         <v>687</v>
       </c>
-      <c r="D330" s="3" t="s">
-        <v>941</v>
-      </c>
-      <c r="E330" s="3">
+      <c r="D330" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="E330" s="2">
         <v>2017</v>
       </c>
-      <c r="F330" s="4" t="s">
+      <c r="F330" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -9960,13 +10121,13 @@
       <c r="C331" t="s">
         <v>687</v>
       </c>
-      <c r="D331" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="E331" s="3">
+      <c r="D331" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="E331" s="2">
         <v>2019</v>
       </c>
-      <c r="F331" s="4" t="s">
+      <c r="F331" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -9980,13 +10141,13 @@
       <c r="C332" t="s">
         <v>687</v>
       </c>
-      <c r="D332" s="3" t="s">
-        <v>943</v>
-      </c>
-      <c r="E332" s="3">
+      <c r="D332" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="E332" s="2">
         <v>2020</v>
       </c>
-      <c r="F332" s="4" t="s">
+      <c r="F332" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -10000,13 +10161,13 @@
       <c r="C333" t="s">
         <v>687</v>
       </c>
-      <c r="D333" s="3" t="s">
-        <v>944</v>
-      </c>
-      <c r="E333" s="3">
+      <c r="D333" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="E333" s="2">
         <v>2019</v>
       </c>
-      <c r="F333" s="4" t="s">
+      <c r="F333" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -10020,13 +10181,13 @@
       <c r="C334" t="s">
         <v>687</v>
       </c>
-      <c r="D334" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="E334" s="3">
+      <c r="D334" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="E334" s="2">
         <v>2018</v>
       </c>
-      <c r="F334" s="4" t="s">
+      <c r="F334" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -10040,9 +10201,15 @@
       <c r="C335" t="s">
         <v>687</v>
       </c>
-      <c r="D335" s="2"/>
-      <c r="E335" s="2"/>
-      <c r="F335" s="2"/>
+      <c r="D335" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E335" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="336" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
@@ -10054,17 +10221,17 @@
       <c r="C336" t="s">
         <v>687</v>
       </c>
-      <c r="D336" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="E336" s="3">
+      <c r="D336" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E336" s="2">
         <v>2018</v>
       </c>
-      <c r="F336" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F336" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>735</v>
       </c>
@@ -10074,17 +10241,17 @@
       <c r="C337" t="s">
         <v>687</v>
       </c>
-      <c r="D337" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="E337" s="3">
+      <c r="D337" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="E337" s="2">
         <v>2018</v>
       </c>
-      <c r="F337" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F337" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>734</v>
       </c>
@@ -10094,17 +10261,17 @@
       <c r="C338" t="s">
         <v>687</v>
       </c>
-      <c r="D338" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="E338" s="3">
+      <c r="D338" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="E338" s="2">
         <v>2018</v>
       </c>
-      <c r="F338" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F338" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>733</v>
       </c>
@@ -10114,17 +10281,17 @@
       <c r="C339" t="s">
         <v>687</v>
       </c>
-      <c r="D339" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="E339" s="3">
+      <c r="D339" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="E339" s="2">
         <v>2018</v>
       </c>
-      <c r="F339" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F339" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>732</v>
       </c>
@@ -10134,17 +10301,17 @@
       <c r="C340" t="s">
         <v>687</v>
       </c>
-      <c r="D340" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="E340" s="3">
+      <c r="D340" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="E340" s="2">
         <v>2019</v>
       </c>
-      <c r="F340" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F340" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>731</v>
       </c>
@@ -10154,17 +10321,17 @@
       <c r="C341" t="s">
         <v>687</v>
       </c>
-      <c r="D341" s="3" t="s">
-        <v>951</v>
-      </c>
-      <c r="E341" s="3">
+      <c r="D341" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="E341" s="2">
         <v>2020</v>
       </c>
-      <c r="F341" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F341" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>730</v>
       </c>
@@ -10174,17 +10341,17 @@
       <c r="C342" t="s">
         <v>687</v>
       </c>
-      <c r="D342" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="E342" s="3">
+      <c r="D342" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="E342" s="2">
         <v>2019</v>
       </c>
-      <c r="F342" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F342" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>729</v>
       </c>
@@ -10194,17 +10361,17 @@
       <c r="C343" t="s">
         <v>687</v>
       </c>
-      <c r="D343" s="3" t="s">
-        <v>953</v>
-      </c>
-      <c r="E343" s="3">
+      <c r="D343" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E343" s="2">
         <v>2018</v>
       </c>
-      <c r="F343" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F343" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>728</v>
       </c>
@@ -10214,17 +10381,17 @@
       <c r="C344" t="s">
         <v>687</v>
       </c>
-      <c r="D344" s="3" t="s">
-        <v>954</v>
-      </c>
-      <c r="E344" s="3">
+      <c r="D344" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="E344" s="2">
         <v>2017</v>
       </c>
-      <c r="F344" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F344" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>727</v>
       </c>
@@ -10234,17 +10401,17 @@
       <c r="C345" t="s">
         <v>687</v>
       </c>
-      <c r="D345" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="E345" s="3">
+      <c r="D345" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="E345" s="2">
         <v>2018</v>
       </c>
-      <c r="F345" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F345" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>160</v>
       </c>
@@ -10254,17 +10421,17 @@
       <c r="C346" t="s">
         <v>687</v>
       </c>
-      <c r="D346" s="3" t="s">
-        <v>956</v>
-      </c>
-      <c r="E346" s="3">
+      <c r="D346" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="E346" s="2">
         <v>2019</v>
       </c>
-      <c r="F346" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F346" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>160</v>
       </c>
@@ -10274,14 +10441,17 @@
       <c r="C347" t="s">
         <v>687</v>
       </c>
-      <c r="D347" s="2"/>
-      <c r="E347" s="2"/>
-      <c r="F347" s="2"/>
-      <c r="G347">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D347" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E347" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>726</v>
       </c>
@@ -10291,17 +10461,17 @@
       <c r="C348" t="s">
         <v>687</v>
       </c>
-      <c r="D348" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="E348" s="3">
+      <c r="D348" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="E348" s="2">
         <v>2017</v>
       </c>
-      <c r="F348" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F348" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>725</v>
       </c>
@@ -10311,17 +10481,17 @@
       <c r="C349" t="s">
         <v>687</v>
       </c>
-      <c r="D349" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="E349" s="3">
+      <c r="D349" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="E349" s="2">
         <v>2017</v>
       </c>
-      <c r="F349" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F349" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>724</v>
       </c>
@@ -10331,17 +10501,17 @@
       <c r="C350" t="s">
         <v>687</v>
       </c>
-      <c r="D350" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="E350" s="3">
+      <c r="D350" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E350" s="2">
         <v>2017</v>
       </c>
-      <c r="F350" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F350" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>723</v>
       </c>
@@ -10351,17 +10521,17 @@
       <c r="C351" t="s">
         <v>687</v>
       </c>
-      <c r="D351" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="E351" s="3">
+      <c r="D351" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="E351" s="2">
         <v>2017</v>
       </c>
-      <c r="F351" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F351" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>723</v>
       </c>
@@ -10371,14 +10541,17 @@
       <c r="C352" t="s">
         <v>687</v>
       </c>
-      <c r="D352" s="2"/>
-      <c r="E352" s="2"/>
-      <c r="F352" s="2"/>
-      <c r="G352">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D352" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E352" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>722</v>
       </c>
@@ -10388,17 +10561,17 @@
       <c r="C353" t="s">
         <v>687</v>
       </c>
-      <c r="D353" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="E353" s="3">
+      <c r="D353" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="E353" s="2">
         <v>2020</v>
       </c>
-      <c r="F353" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F353" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>721</v>
       </c>
@@ -10408,17 +10581,17 @@
       <c r="C354" t="s">
         <v>687</v>
       </c>
-      <c r="D354" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="E354" s="3">
+      <c r="D354" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="E354" s="2">
         <v>2018</v>
       </c>
-      <c r="F354" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F354" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>720</v>
       </c>
@@ -10428,11 +10601,17 @@
       <c r="C355" t="s">
         <v>687</v>
       </c>
-      <c r="D355" s="2"/>
-      <c r="E355" s="2"/>
-      <c r="F355" s="2"/>
-    </row>
-    <row r="356" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D355" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E355" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>719</v>
       </c>
@@ -10442,17 +10621,17 @@
       <c r="C356" t="s">
         <v>687</v>
       </c>
-      <c r="D356" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="E356" s="3">
+      <c r="D356" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="E356" s="2">
         <v>2018</v>
       </c>
-      <c r="F356" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F356" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>718</v>
       </c>
@@ -10462,17 +10641,17 @@
       <c r="C357" t="s">
         <v>687</v>
       </c>
-      <c r="D357" s="3" t="s">
-        <v>964</v>
-      </c>
-      <c r="E357" s="3">
+      <c r="D357" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="E357" s="2">
         <v>2018</v>
       </c>
-      <c r="F357" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F357" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>717</v>
       </c>
@@ -10482,17 +10661,17 @@
       <c r="C358" t="s">
         <v>687</v>
       </c>
-      <c r="D358" s="3" t="s">
-        <v>965</v>
-      </c>
-      <c r="E358" s="3">
+      <c r="D358" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="E358" s="2">
         <v>2020</v>
       </c>
-      <c r="F358" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F358" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>716</v>
       </c>
@@ -10502,17 +10681,17 @@
       <c r="C359" t="s">
         <v>687</v>
       </c>
-      <c r="D359" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="E359" s="3">
+      <c r="D359" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="E359" s="2">
         <v>2019</v>
       </c>
-      <c r="F359" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F359" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>715</v>
       </c>
@@ -10522,17 +10701,17 @@
       <c r="C360" t="s">
         <v>687</v>
       </c>
-      <c r="D360" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="E360" s="3">
+      <c r="D360" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="E360" s="2">
         <v>2019</v>
       </c>
-      <c r="F360" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F360" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>714</v>
       </c>
@@ -10542,11 +10721,17 @@
       <c r="C361" t="s">
         <v>687</v>
       </c>
-      <c r="D361" s="2"/>
-      <c r="E361" s="2"/>
-      <c r="F361" s="2"/>
-    </row>
-    <row r="362" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D361" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E361" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>713</v>
       </c>
@@ -10556,17 +10741,17 @@
       <c r="C362" t="s">
         <v>687</v>
       </c>
-      <c r="D362" s="3" t="s">
-        <v>968</v>
-      </c>
-      <c r="E362" s="3">
+      <c r="D362" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="E362" s="2">
         <v>2020</v>
       </c>
-      <c r="F362" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F362" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>552</v>
       </c>
@@ -10576,14 +10761,17 @@
       <c r="C363" t="s">
         <v>687</v>
       </c>
-      <c r="D363" s="2"/>
-      <c r="E363" s="2"/>
-      <c r="F363" s="2"/>
-      <c r="G363">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D363" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E363" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>712</v>
       </c>
@@ -10593,13 +10781,17 @@
       <c r="C364" t="s">
         <v>687</v>
       </c>
-      <c r="D364" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="E364" s="2"/>
-      <c r="F364" s="2"/>
-    </row>
-    <row r="365" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D364" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="E364" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>711</v>
       </c>
@@ -10609,8 +10801,8 @@
       <c r="C365" t="s">
         <v>687</v>
       </c>
-      <c r="D365" s="3" t="s">
-        <v>970</v>
+      <c r="D365" s="2" t="s">
+        <v>968</v>
       </c>
       <c r="E365">
         <v>2020</v>
@@ -10619,7 +10811,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>710</v>
       </c>
@@ -10629,8 +10821,8 @@
       <c r="C366" t="s">
         <v>687</v>
       </c>
-      <c r="D366" s="3" t="s">
-        <v>971</v>
+      <c r="D366" s="2" t="s">
+        <v>969</v>
       </c>
       <c r="E366">
         <v>2019</v>
@@ -10639,7 +10831,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>290</v>
       </c>
@@ -10649,8 +10841,8 @@
       <c r="C367" t="s">
         <v>687</v>
       </c>
-      <c r="D367" s="3" t="s">
-        <v>972</v>
+      <c r="D367" s="2" t="s">
+        <v>970</v>
       </c>
       <c r="E367">
         <v>2017</v>
@@ -10659,7 +10851,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>709</v>
       </c>
@@ -10669,8 +10861,8 @@
       <c r="C368" t="s">
         <v>687</v>
       </c>
-      <c r="D368" s="3" t="s">
-        <v>973</v>
+      <c r="D368" s="2" t="s">
+        <v>971</v>
       </c>
       <c r="E368">
         <v>2017</v>
@@ -10679,7 +10871,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>708</v>
       </c>
@@ -10689,13 +10881,17 @@
       <c r="C369" t="s">
         <v>687</v>
       </c>
-      <c r="D369" s="3" t="s">
-        <v>974</v>
-      </c>
-      <c r="E369" s="2"/>
-      <c r="F369" s="2"/>
-    </row>
-    <row r="370" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D369" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="E369" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>707</v>
       </c>
@@ -10705,8 +10901,8 @@
       <c r="C370" t="s">
         <v>687</v>
       </c>
-      <c r="D370" s="3" t="s">
-        <v>975</v>
+      <c r="D370" s="2" t="s">
+        <v>973</v>
       </c>
       <c r="E370">
         <v>2017</v>
@@ -10715,7 +10911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>706</v>
       </c>
@@ -10725,8 +10921,8 @@
       <c r="C371" t="s">
         <v>687</v>
       </c>
-      <c r="D371" s="3" t="s">
-        <v>976</v>
+      <c r="D371" s="2" t="s">
+        <v>974</v>
       </c>
       <c r="E371">
         <v>2019</v>
@@ -10735,7 +10931,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>705</v>
       </c>
@@ -10745,8 +10941,8 @@
       <c r="C372" t="s">
         <v>687</v>
       </c>
-      <c r="D372" s="3" t="s">
-        <v>977</v>
+      <c r="D372" s="2" t="s">
+        <v>975</v>
       </c>
       <c r="E372">
         <v>2018</v>
@@ -10755,7 +10951,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>704</v>
       </c>
@@ -10765,8 +10961,8 @@
       <c r="C373" t="s">
         <v>687</v>
       </c>
-      <c r="D373" s="3" t="s">
-        <v>978</v>
+      <c r="D373" s="2" t="s">
+        <v>976</v>
       </c>
       <c r="E373">
         <v>2018</v>
@@ -10775,7 +10971,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>703</v>
       </c>
@@ -10785,8 +10981,8 @@
       <c r="C374" t="s">
         <v>687</v>
       </c>
-      <c r="D374" s="3" t="s">
-        <v>979</v>
+      <c r="D374" s="2" t="s">
+        <v>977</v>
       </c>
       <c r="E374">
         <v>2018</v>
@@ -10795,7 +10991,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>186</v>
       </c>
@@ -10805,8 +11001,8 @@
       <c r="C375" t="s">
         <v>687</v>
       </c>
-      <c r="D375" s="3" t="s">
-        <v>980</v>
+      <c r="D375" s="2" t="s">
+        <v>978</v>
       </c>
       <c r="E375">
         <v>2020</v>
@@ -10815,7 +11011,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>60</v>
       </c>
@@ -10825,14 +11021,17 @@
       <c r="C376" t="s">
         <v>687</v>
       </c>
-      <c r="D376" s="2"/>
-      <c r="E376" s="2"/>
-      <c r="F376" s="2"/>
-      <c r="G376">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D376" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E376" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>60</v>
       </c>
@@ -10842,8 +11041,8 @@
       <c r="C377" t="s">
         <v>687</v>
       </c>
-      <c r="D377" s="3" t="s">
-        <v>981</v>
+      <c r="D377" s="2" t="s">
+        <v>979</v>
       </c>
       <c r="E377">
         <v>2017</v>
@@ -10852,7 +11051,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>702</v>
       </c>
@@ -10862,8 +11061,8 @@
       <c r="C378" t="s">
         <v>687</v>
       </c>
-      <c r="D378" s="3" t="s">
-        <v>982</v>
+      <c r="D378" s="2" t="s">
+        <v>980</v>
       </c>
       <c r="E378">
         <v>2018</v>
@@ -10872,7 +11071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>701</v>
       </c>
@@ -10882,8 +11081,8 @@
       <c r="C379" t="s">
         <v>687</v>
       </c>
-      <c r="D379" s="3" t="s">
-        <v>983</v>
+      <c r="D379" s="2" t="s">
+        <v>981</v>
       </c>
       <c r="E379">
         <v>2020</v>
@@ -10892,7 +11091,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>700</v>
       </c>
@@ -10902,8 +11101,8 @@
       <c r="C380" t="s">
         <v>687</v>
       </c>
-      <c r="D380" s="3" t="s">
-        <v>984</v>
+      <c r="D380" s="2" t="s">
+        <v>982</v>
       </c>
       <c r="E380">
         <v>2017</v>
@@ -10912,7 +11111,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>482</v>
       </c>
@@ -10922,8 +11121,8 @@
       <c r="C381" t="s">
         <v>687</v>
       </c>
-      <c r="D381" s="3" t="s">
-        <v>985</v>
+      <c r="D381" s="2" t="s">
+        <v>983</v>
       </c>
       <c r="E381">
         <v>2017</v>
@@ -10932,7 +11131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>699</v>
       </c>
@@ -10942,8 +11141,8 @@
       <c r="C382" t="s">
         <v>687</v>
       </c>
-      <c r="D382" s="3" t="s">
-        <v>986</v>
+      <c r="D382" s="2" t="s">
+        <v>984</v>
       </c>
       <c r="E382">
         <v>2018</v>
@@ -10952,7 +11151,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>541</v>
       </c>
@@ -10962,11 +11161,17 @@
       <c r="C383" t="s">
         <v>687</v>
       </c>
-      <c r="D383" s="2"/>
-      <c r="E383" s="2"/>
-      <c r="F383" s="2"/>
-    </row>
-    <row r="384" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D383" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E383" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>698</v>
       </c>
@@ -10976,8 +11181,8 @@
       <c r="C384" t="s">
         <v>687</v>
       </c>
-      <c r="D384" s="3" t="s">
-        <v>987</v>
+      <c r="D384" s="2" t="s">
+        <v>985</v>
       </c>
       <c r="E384">
         <v>2019</v>
@@ -10996,8 +11201,8 @@
       <c r="C385" t="s">
         <v>687</v>
       </c>
-      <c r="D385" s="3" t="s">
-        <v>988</v>
+      <c r="D385" s="2" t="s">
+        <v>986</v>
       </c>
       <c r="E385">
         <v>2019</v>
@@ -11016,11 +11221,17 @@
       <c r="C386" t="s">
         <v>687</v>
       </c>
-      <c r="D386" s="2"/>
-      <c r="E386" s="2"/>
-      <c r="F386" s="2"/>
-    </row>
-    <row r="387" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D386" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E386" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F386" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>695</v>
       </c>
@@ -11030,8 +11241,8 @@
       <c r="C387" t="s">
         <v>687</v>
       </c>
-      <c r="D387" s="3" t="s">
-        <v>989</v>
+      <c r="D387" s="2" t="s">
+        <v>987</v>
       </c>
       <c r="E387">
         <v>2018</v>
@@ -11050,8 +11261,8 @@
       <c r="C388" t="s">
         <v>687</v>
       </c>
-      <c r="D388" s="3" t="s">
-        <v>990</v>
+      <c r="D388" s="2" t="s">
+        <v>988</v>
       </c>
       <c r="E388">
         <v>2020</v>
@@ -11070,8 +11281,8 @@
       <c r="C389" t="s">
         <v>687</v>
       </c>
-      <c r="D389" s="3" t="s">
-        <v>991</v>
+      <c r="D389" s="2" t="s">
+        <v>989</v>
       </c>
       <c r="E389">
         <v>2020</v>
@@ -11090,8 +11301,8 @@
       <c r="C390" t="s">
         <v>687</v>
       </c>
-      <c r="D390" s="3" t="s">
-        <v>992</v>
+      <c r="D390" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="E390">
         <v>2020</v>
@@ -11110,8 +11321,8 @@
       <c r="C391" t="s">
         <v>687</v>
       </c>
-      <c r="D391" s="3" t="s">
-        <v>993</v>
+      <c r="D391" s="2" t="s">
+        <v>991</v>
       </c>
       <c r="E391">
         <v>2017</v>
@@ -11130,8 +11341,8 @@
       <c r="C392" t="s">
         <v>687</v>
       </c>
-      <c r="D392" s="3" t="s">
-        <v>994</v>
+      <c r="D392" s="2" t="s">
+        <v>992</v>
       </c>
       <c r="E392">
         <v>2020</v>
@@ -11150,8 +11361,8 @@
       <c r="C393" t="s">
         <v>687</v>
       </c>
-      <c r="D393" s="3" t="s">
-        <v>995</v>
+      <c r="D393" s="2" t="s">
+        <v>993</v>
       </c>
       <c r="E393">
         <v>2019</v>
@@ -11170,8 +11381,8 @@
       <c r="C394" t="s">
         <v>687</v>
       </c>
-      <c r="D394" s="3" t="s">
-        <v>996</v>
+      <c r="D394" s="2" t="s">
+        <v>994</v>
       </c>
       <c r="E394">
         <v>2019</v>
@@ -11190,8 +11401,8 @@
       <c r="C395" t="s">
         <v>687</v>
       </c>
-      <c r="D395" s="3" t="s">
-        <v>997</v>
+      <c r="D395" s="2" t="s">
+        <v>995</v>
       </c>
       <c r="E395">
         <v>2020</v>
@@ -11210,8 +11421,8 @@
       <c r="C396" t="s">
         <v>758</v>
       </c>
-      <c r="D396" s="3" t="s">
-        <v>998</v>
+      <c r="D396" s="2" t="s">
+        <v>996</v>
       </c>
       <c r="E396">
         <v>2017</v>
@@ -11230,8 +11441,8 @@
       <c r="C397" t="s">
         <v>758</v>
       </c>
-      <c r="D397" s="3" t="s">
-        <v>999</v>
+      <c r="D397" s="2" t="s">
+        <v>997</v>
       </c>
       <c r="E397">
         <v>2017</v>
@@ -11250,8 +11461,8 @@
       <c r="C398" t="s">
         <v>758</v>
       </c>
-      <c r="D398" s="3" t="s">
-        <v>1000</v>
+      <c r="D398" s="2" t="s">
+        <v>998</v>
       </c>
       <c r="E398">
         <v>2017</v>
@@ -11270,8 +11481,8 @@
       <c r="C399" t="s">
         <v>770</v>
       </c>
-      <c r="D399" s="3" t="s">
-        <v>1001</v>
+      <c r="D399" s="2" t="s">
+        <v>999</v>
       </c>
       <c r="E399">
         <v>2020</v>
@@ -11290,8 +11501,8 @@
       <c r="C400" t="s">
         <v>770</v>
       </c>
-      <c r="D400" s="3" t="s">
-        <v>1002</v>
+      <c r="D400" s="2" t="s">
+        <v>1000</v>
       </c>
       <c r="E400">
         <v>2017</v>
@@ -11310,8 +11521,8 @@
       <c r="C401" t="s">
         <v>770</v>
       </c>
-      <c r="D401" s="3" t="s">
-        <v>1003</v>
+      <c r="D401" s="2" t="s">
+        <v>1001</v>
       </c>
       <c r="E401">
         <v>2018</v>
@@ -11330,8 +11541,8 @@
       <c r="C402" t="s">
         <v>770</v>
       </c>
-      <c r="D402" s="3" t="s">
-        <v>1004</v>
+      <c r="D402" s="2" t="s">
+        <v>1002</v>
       </c>
       <c r="E402">
         <v>2020</v>
@@ -11350,8 +11561,8 @@
       <c r="C403" t="s">
         <v>770</v>
       </c>
-      <c r="D403" s="3" t="s">
-        <v>1005</v>
+      <c r="D403" s="2" t="s">
+        <v>1003</v>
       </c>
       <c r="E403">
         <v>2018</v>
@@ -11370,8 +11581,8 @@
       <c r="C404" t="s">
         <v>770</v>
       </c>
-      <c r="D404" s="3" t="s">
-        <v>1006</v>
+      <c r="D404" s="2" t="s">
+        <v>1004</v>
       </c>
       <c r="E404">
         <v>2018</v>
@@ -11390,8 +11601,8 @@
       <c r="C405" t="s">
         <v>770</v>
       </c>
-      <c r="D405" s="3" t="s">
-        <v>1007</v>
+      <c r="D405" s="2" t="s">
+        <v>1005</v>
       </c>
       <c r="E405">
         <v>2017</v>
